--- a/data_kr/Train_Valid_Test_Period.xlsx
+++ b/data_kr/Train_Valid_Test_Period.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongh\Graduation_Project\Code_Of_DL\KOSPI200\data_kr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongh\Graduation_Project\Code\S3CE\data_kr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B8E82A-6F7D-4D6E-9D4D-908FD991CACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D46730-3AAB-4686-8D59-429BB7CD05E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{348F6EC0-FDBC-4E5F-A102-0D0A23819889}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
   <si>
     <t>Train_Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,54 @@
   </si>
   <si>
     <t>3년 9개월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021_Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024_Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023_Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4년 3개월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년 3개월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025_Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025_Q2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -335,13 +383,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,9 +423,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,16 +453,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5730C72-01EA-4AC0-A16D-B8A0E1EA9586}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -813,18 +873,18 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -863,18 +923,18 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -913,18 +973,18 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -963,18 +1023,18 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -1013,27 +1073,27 @@
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -1067,18 +1127,18 @@
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I11">
@@ -1110,18 +1170,18 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I12">
@@ -1153,18 +1213,18 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I13">
@@ -1196,18 +1256,18 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I14">
@@ -1239,294 +1299,294 @@
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>39994</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14">
+      <c r="C19" s="14"/>
+      <c r="D19" s="13">
         <v>41455</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14">
+      <c r="E19" s="14"/>
+      <c r="F19" s="13">
         <v>41820</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="10">
+      <c r="G19" s="14"/>
+      <c r="H19" s="9">
         <v>42185</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>40359</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13">
         <v>41820</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13">
         <v>42185</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="10">
+      <c r="G20" s="14"/>
+      <c r="H20" s="9">
         <v>42551</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>3</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>40724</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14">
+      <c r="C21" s="14"/>
+      <c r="D21" s="13">
         <v>42185</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14">
+      <c r="E21" s="14"/>
+      <c r="F21" s="13">
         <v>42551</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="10">
+      <c r="G21" s="14"/>
+      <c r="H21" s="9">
         <v>42916</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>4</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>41090</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14">
+      <c r="C22" s="14"/>
+      <c r="D22" s="13">
         <v>42551</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14">
+      <c r="E22" s="14"/>
+      <c r="F22" s="13">
         <v>42916</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="10">
+      <c r="G22" s="14"/>
+      <c r="H22" s="9">
         <v>43281</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>5</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>41455</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14">
+      <c r="C23" s="14"/>
+      <c r="D23" s="13">
         <v>42916</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14">
+      <c r="E23" s="14"/>
+      <c r="F23" s="13">
         <v>43281</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="10">
+      <c r="G23" s="14"/>
+      <c r="H23" s="9">
         <v>43646</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>6</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>41820</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14">
+      <c r="C24" s="14"/>
+      <c r="D24" s="13">
         <v>43281</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14">
+      <c r="E24" s="14"/>
+      <c r="F24" s="13">
         <v>43646</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="10">
+      <c r="G24" s="14"/>
+      <c r="H24" s="9">
         <v>44012</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>7</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>42551</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14">
+      <c r="C25" s="14"/>
+      <c r="D25" s="13">
         <v>43646</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14">
+      <c r="E25" s="14"/>
+      <c r="F25" s="13">
         <v>44012</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="10">
+      <c r="G25" s="14"/>
+      <c r="H25" s="9">
         <v>44377</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>8</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>42551</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13">
         <v>44012</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14">
+      <c r="E26" s="14"/>
+      <c r="F26" s="13">
         <v>44377</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="10">
+      <c r="G26" s="14"/>
+      <c r="H26" s="9">
         <v>44742</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>9</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>42916</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14">
+      <c r="C27" s="14"/>
+      <c r="D27" s="13">
         <v>44377</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14">
+      <c r="E27" s="14"/>
+      <c r="F27" s="13">
         <v>44742</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="10">
+      <c r="G27" s="14"/>
+      <c r="H27" s="9">
         <v>45107</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>10</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>43281</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14">
+      <c r="C28" s="14"/>
+      <c r="D28" s="13">
         <v>44742</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14">
+      <c r="E28" s="14"/>
+      <c r="F28" s="13">
         <v>45107</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="10">
+      <c r="G28" s="14"/>
+      <c r="H28" s="9">
         <v>45473</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>1</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="7" t="s">
         <v>12</v>
       </c>
@@ -1544,21 +1604,21 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>2</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="7" t="s">
         <v>8</v>
       </c>
@@ -1576,21 +1636,21 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>3</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="7" t="s">
         <v>6</v>
       </c>
@@ -1608,21 +1668,21 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>4</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="22" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="7" t="s">
         <v>27</v>
       </c>
@@ -1640,25 +1700,291 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="19" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>19</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="16">
+        <v>1</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>23</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="16">
+        <v>2</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>27</v>
+      </c>
+      <c r="L39">
+        <v>31</v>
+      </c>
+      <c r="M39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="16">
+        <v>3</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <v>31</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="16">
+        <v>4</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="J43">
+        <v>2019</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>

--- a/data_kr/Train_Valid_Test_Period.xlsx
+++ b/data_kr/Train_Valid_Test_Period.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongh\Graduation_Project\Code\S3CE\data_kr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D46730-3AAB-4686-8D59-429BB7CD05E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5857A578-AE30-4274-AAA7-4EEAEBA28FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{348F6EC0-FDBC-4E5F-A102-0D0A23819889}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t>Train_Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,23 +186,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020_Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4년 3개월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5년 3개월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2025_Q3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2025_Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016_Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017_Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018_Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,16 +467,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,7 +816,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1073,27 +1081,27 @@
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -1299,18 +1307,18 @@
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1537,18 +1545,18 @@
       <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1703,18 +1711,18 @@
       <c r="A35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="22" t="s">
+      <c r="E35" s="21"/>
+      <c r="F35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -1742,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>19</v>
@@ -1759,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>13</v>
@@ -1780,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K38">
         <v>23</v>
@@ -1797,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>33</v>
@@ -1818,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K39">
         <v>27</v>
@@ -1835,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>30</v>
@@ -1856,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="J40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K40">
         <v>31</v>
@@ -1873,7 +1881,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>36</v>
@@ -1888,39 +1896,39 @@
         <v>5</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="22" t="s">
+      <c r="B42" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="22" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="23"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B43" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="B43" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
       <c r="J43">
         <v>2019</v>
       </c>
@@ -1981,6 +1989,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -1997,9 +2008,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_kr/Train_Valid_Test_Period.xlsx
+++ b/data_kr/Train_Valid_Test_Period.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongh\Graduation_Project\Code\S3CE\data_kr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5857A578-AE30-4274-AAA7-4EEAEBA28FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D404F88-F98C-4F26-8ACE-752BB4BA32D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{348F6EC0-FDBC-4E5F-A102-0D0A23819889}"/>
   </bookViews>
@@ -284,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -392,12 +392,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -406,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,13 +498,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +865,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1081,27 +1130,27 @@
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -1307,18 +1356,18 @@
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -1545,18 +1594,18 @@
       <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1711,23 +1760,23 @@
       <c r="A35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="20" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -1746,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="27" t="s">
         <v>4</v>
       </c>
       <c r="J37">
@@ -1763,7 +1812,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="16">
+      <c r="A38" s="25">
         <v>1</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -1781,10 +1830,10 @@
       <c r="F38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="24" t="s">
         <v>9</v>
       </c>
       <c r="J38">
@@ -1801,7 +1850,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="16">
+      <c r="A39" s="25">
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -1813,16 +1862,16 @@
       <c r="D39" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="24" t="s">
         <v>7</v>
       </c>
       <c r="J39">
@@ -1839,28 +1888,28 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="16">
+      <c r="A40" s="25">
         <v>3</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J40">
@@ -1877,58 +1926,58 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="16">
+      <c r="A41" s="25">
         <v>4</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="20" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="5" t="s">
+      <c r="G42" s="23"/>
+      <c r="H42" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B43" s="22" t="s">
+    <row r="43" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
       <c r="J43">
         <v>2019</v>
       </c>
@@ -1989,12 +2038,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
@@ -2008,6 +2051,12 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
